--- a/biology/Médecine/Hôpitaux_privés_de_Metz/Hôpitaux_privés_de_Metz.xlsx
+++ b/biology/Médecine/Hôpitaux_privés_de_Metz/Hôpitaux_privés_de_Metz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pitaux_priv%C3%A9s_de_Metz</t>
+          <t>Hôpitaux_privés_de_Metz</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Uneos, groupe Hospitalier Associatif (anciennement Hôpitaux Privés de Metz - HPMetz ) sont un regroupement d’hôpitaux associatifs dans la ville de Metz en Moselle.
-C'est une association de droit local crée le 31 mai 2006[1]. Elle entre effectivement en fonctionnement le 1er janvier 2008.
+C'est une association de droit local crée le 31 mai 2006. Elle entre effectivement en fonctionnement le 1er janvier 2008.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pitaux_priv%C3%A9s_de_Metz</t>
+          <t>Hôpitaux_privés_de_Metz</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">3 hôpitaux d'origine congréganistes sont regroupés[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3 hôpitaux d'origine congréganistes sont regroupés :
 Belle-Isle
 Saint-André qui a fermé ses portes en 2013 à l'ouverture de l'hôpital Robert-Schuman.
 Sainte-Blandine qui a fermé ses portes en début d'année 2021 à la fin des travaux d'extension de l'hôpital Robert-Schuman
@@ -524,7 +538,7 @@
 La résidence Sainte-Marie
 La résidence Sainte-Claire
 La résidence des frères de la Salle
-Ils font tous partie du patrimoine sanitaire messin[2].
+Ils font tous partie du patrimoine sanitaire messin.
 </t>
         </is>
       </c>
@@ -535,7 +549,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pitaux_priv%C3%A9s_de_Metz</t>
+          <t>Hôpitaux_privés_de_Metz</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -553,9 +567,11 @@
           <t>Soins</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il comptabilise une capacité totale de 1 093 lits, places et postes dont[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il comptabilise une capacité totale de 1 093 lits, places et postes dont :
 571 lits et places en médecine et chirurgie spécialisées ;
 28 lits de réanimation, surveillance continue ;
 32 postes d’hémodialyse ;
@@ -564,7 +580,7 @@
 70 places de soins à domicile : 40 HAD + 30 SSIAD ;
 33 lits de psychiatrie non sectorisés ;
 30 lits de soins de longue durée et 119 lits d’EHPAD.
-Les hôpitaux privés de Metz sont certifiés qualité ISO 9001, une première pour un Service Qualité d'un établissement de santé[4], ils sont classés 28e dans le tableau d'honneur des meilleurs hôpitaux de France en 2017[5]. Le directeur-général des Hôpitaux Privés de Metz est Régis Moreau[6].
+Les hôpitaux privés de Metz sont certifiés qualité ISO 9001, une première pour un Service Qualité d'un établissement de santé, ils sont classés 28e dans le tableau d'honneur des meilleurs hôpitaux de France en 2017. Le directeur-général des Hôpitaux Privés de Metz est Régis Moreau.
 </t>
         </is>
       </c>
